--- a/extracted_growth_equity/amoct2025repo_growth_equity.xlsx
+++ b/extracted_growth_equity/amoct2025repo_growth_equity.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,163 +434,163 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Growth/Equity Oriented Schemes</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sr </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scheme Name </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Schemes as on October 31, 2025</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Folios as on October 31, 2025</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Funds Mobilized for the month of October 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Repurchase/Redemption for the month of October 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Net Inflow (+ve)/Outflow (-ve) for the month of October 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Net Assets Under Management as on October 31, 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Average Net Assets Under Management for the month October 2025 (INR in crore)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>No. of segregated portfolios created as on October 31, 2025</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Net Assets Under Management in segregated portfolio as on October 31, 2025 (INR in crore)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multi Cap Fund</t>
+          <t>Growth/Equity Oriented Schemes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10912552</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4903.94117614</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2403.50842212</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2500.43275402</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>220254.62921996</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>217508.31871895</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ii</t>
+          <t>i</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Large Cap Fund</t>
+          <t>Multi Cap Fund</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16696893</t>
+          <t>10912552</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5293.26800171</t>
+          <t>4903.94117614</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4321.29601526</t>
+          <t>2403.50842212</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>971.97198645</t>
+          <t>2500.43275402</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>410156.51085413</t>
+          <t>220254.62921996</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>407307.68494173</t>
+          <t>217508.31871895</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -595,12 +607,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>iii</t>
+          <t>ii</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Large &amp; Mid Cap Fund</t>
+          <t>Large Cap Fund</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -610,32 +622,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12989734</t>
+          <t>16696893</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6037.21915241</t>
+          <t>5293.26800171</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2860.15063497</t>
+          <t>4321.29601526</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3177.06851744</t>
+          <t>971.97198645</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>322158.20918876</t>
+          <t>410156.51085413</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>317917.72289514</t>
+          <t>407307.68494173</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -652,47 +664,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>iv</t>
+          <t>iii</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mid Cap Fund</t>
+          <t>Large &amp; Mid Cap Fund</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23535313</t>
+          <t>12989734</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8169.02743156</t>
+          <t>6037.21915241</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4361.91558898</t>
+          <t>2860.15063497</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3807.11184257999</t>
+          <t>3177.06851744</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>454606.48502828</t>
+          <t>322158.20918876</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>449162.62106016</t>
+          <t>317917.72289514</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -709,12 +721,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>iv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Small Cap Fund</t>
+          <t>Mid Cap Fund</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -724,32 +736,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27017320</t>
+          <t>23535313</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7660.98784423</t>
+          <t>8169.02743156</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4184.9446509</t>
+          <t>4361.91558898</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3476.04319333</t>
+          <t>3807.11184257999</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>372362.30735458</t>
+          <t>454606.48502828</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>366798.06176138</t>
+          <t>449162.62106016</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -766,47 +778,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>v</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dividend Yield Fund</t>
+          <t>Small Cap Fund</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1194639</t>
+          <t>27017320</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>295.59052543</t>
+          <t>7660.98784423</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>474.54709956</t>
+          <t>4184.9446509</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-178.95657413</t>
+          <t>3476.04319333</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>33210.96177919</t>
+          <t>372362.30735458</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>32993.51305214</t>
+          <t>366798.06176138</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -823,47 +835,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vii</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Value Fund/Contra Fund</t>
+          <t>Dividend Yield Fund</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8788244</t>
+          <t>1194639</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2590.67191402</t>
+          <t>295.59052543</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2222.28211492</t>
+          <t>474.54709956</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>368.389799099999</t>
+          <t>-178.95657413</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>213021.3496557</t>
+          <t>33210.96177919</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>210507.56854408</t>
+          <t>32993.51305214</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -880,47 +892,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>viii</t>
+          <t>vii</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Focused Fund</t>
+          <t>Value Fund/Contra Fund</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5359834</t>
+          <t>8788244</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2538.69326611</t>
+          <t>2590.67191402</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1599.63494681</t>
+          <t>2222.28211492</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>939.0583193</t>
+          <t>368.389799099999</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>170127.72426614</t>
+          <t>213021.3496557</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>168387.19951814</t>
+          <t>210507.56854408</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -937,47 +949,47 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ix</t>
+          <t>viii</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sectoral/Thematic Funds</t>
+          <t>Focused Fund</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31811396</t>
+          <t>5359834</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11776.9534215</t>
+          <t>2538.69326611</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10410.791826</t>
+          <t>1599.63494681</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1366.1615955</t>
+          <t>939.0583193</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>533830.68176431</t>
+          <t>170127.72426614</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>527588.94075028</t>
+          <t>168387.19951814</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -994,47 +1006,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>ix</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ELSS</t>
+          <t>Sectoral/Thematic Funds</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16644818</t>
+          <t>31811396</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1376.30365988</t>
+          <t>11776.9534215</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2041.96044137</t>
+          <t>10410.791826</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-665.656781489999</t>
+          <t>1366.1615955</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>253264.08520251</t>
+          <t>533830.68176431</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>251624.33816865</t>
+          <t>527588.94075028</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1051,47 +1063,47 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xi</t>
+          <t>x</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Flexi Cap Fund</t>
+          <t>ELSS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21182395</t>
+          <t>16644818</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12968.50083385</t>
+          <t>1376.30365988</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4039.79578586</t>
+          <t>2041.96044137</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>8928.70504799</t>
+          <t>-665.656781489999</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>533756.16522279</t>
+          <t>253264.08520251</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>527143.34334101</t>
+          <t>251624.33816865</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1108,55 +1120,112 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>xi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21182395</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12968.50083385</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4039.79578586</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>8928.70504799</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>533756.16522279</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>527143.34334101</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Sub Total - II (i+ii+iii+iv+v+vi+vii+viii+ix+x+xi)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>539</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>176133138</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>63611.15722684</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>38920.82752675</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>24690.329700089995</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>3516749.1095363502</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>3476939.31275166</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
